--- a/df_skyscanners_clean.xlsx
+++ b/df_skyscanners_clean.xlsx
@@ -5448,42 +5448,42 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>Jet Ops</t>
+          <t>Jet2</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>Jet2</t>
+          <t>Jet4you</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>Jet4you</t>
+          <t>JetClass</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>JetClass</t>
+          <t>JetKonnect</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>JetKonnect</t>
+          <t>JetSMART Argentina</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>JetSMART Argentina</t>
+          <t>JetSMART Colombia</t>
         </is>
       </c>
     </row>
